--- a/databaseproject.xlsx
+++ b/databaseproject.xlsx
@@ -270,9 +270,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -285,6 +282,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -582,13 +582,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
@@ -597,10 +597,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -608,54 +608,54 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -666,124 +666,124 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
@@ -794,66 +794,66 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>43181</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>43234</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>43252</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
@@ -861,88 +861,88 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>43181</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>43234</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>3</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>43252</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>4</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>43252</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
@@ -956,57 +956,57 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3">
-        <v>2</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3">
-        <v>3</v>
-      </c>
-      <c r="B40" s="3">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>4</v>
       </c>
-      <c r="B41" s="13">
-        <v>3</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="B41" s="12">
+        <v>3</v>
+      </c>
+      <c r="C41" s="12">
         <v>4</v>
       </c>
     </row>
